--- a/Sprint 3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint 3/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D07AE-92D6-554F-B84E-CB167892912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECE104B-CBDA-4C48-92B6-3DE54B465D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1539,6 +1541,9 @@
                 <c:pt idx="2">
                   <c:v>42444</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42458</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1556,6 +1561,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3585,7 +3593,7 @@
         <v>186</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3602,7 +3610,7 @@
         <v>186</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3987,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4090,6 +4098,15 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="B5" s="13">
+        <v>42458</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -5083,7 +5100,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5212,7 +5229,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -5232,7 +5249,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>40</v>
